--- a/medicine/Sexualité et sexologie/H_(série_télévisée,_2019)/H_(série_télévisée,_2019).xlsx
+++ b/medicine/Sexualité et sexologie/H_(série_télévisée,_2019)/H_(série_télévisée,_2019).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2019)</t>
+          <t>H_(série_télévisée,_2019)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">H (Hache) est une série télévisée de thriller dramatique espagnole, créée par Verónica Fernández[1] et mise en ligne depuis le 1er novembre 2019 sur Netflix, incluant les pays francophones.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">H (Hache) est une série télévisée de thriller dramatique espagnole, créée par Verónica Fernández et mise en ligne depuis le 1er novembre 2019 sur Netflix, incluant les pays francophones.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2019)</t>
+          <t>H_(série_télévisée,_2019)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La série se déroule dans le monde du trafic de drogue et de la prostitution dans le Barcelone des années 1960[2], et met en vedette Adriana Ugarte ainsi qu'Eduardo Noriega et Javier Rey.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La série se déroule dans le monde du trafic de drogue et de la prostitution dans le Barcelone des années 1960, et met en vedette Adriana Ugarte ainsi qu'Eduardo Noriega et Javier Rey.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2019)</t>
+          <t>H_(série_télévisée,_2019)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Adriana Ugarte (VF : Laurence Dourlens) : Helena « H » Olaya
 Eduardo Noriega (VF : Constantin Pappas) : Alejandro Vinuesa
@@ -558,7 +574,7 @@
 Séainín Brennan (VF : Natacha Muller) : Anna McVeigh
 Andrew Tarbet (VF : Maurice Decoster) : Walter Kopinski
 Tonia Richardson : Julia Bloomsbury
- Source et légende : version française (VF) sur RS Doublage[3]
+ Source et légende : version française (VF) sur RS Doublage
 </t>
         </is>
       </c>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2019)</t>
+          <t>H_(série_télévisée,_2019)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,9 +603,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 21 novembre 2019, il a été confirmé que la série avait été renouvelée pour une seconde saison de six épisodes pour une diffusion en 2021[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 21 novembre 2019, il a été confirmé que la série avait été renouvelée pour une seconde saison de six épisodes pour une diffusion en 2021.
 </t>
         </is>
       </c>
@@ -600,7 +618,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2019)</t>
+          <t>H_(série_télévisée,_2019)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -620,17 +638,56 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Première saison (2019)
-Des poupées à la mer (Muñecas flotando en el mar)
+          <t>Première saison (2019)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Des poupées à la mer (Muñecas flotando en el mar)
 Première mission (El primer trabajo)
 Le Combat (El combate)
 Le Baiser de la mort (El beso de la muerte)
 Vengeance (Venganza)
 Marseille (Marsella)
 Le Manège (El tiovivo)
-Helena avec un H (Helena con H)
-Deuxième saison (2021)
-Cette saison de six épisodes a été mise en ligne le 5 février 2021
+Helena avec un H (Helena con H)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>H_(série_télévisée,_2019)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H_(s%C3%A9rie_t%C3%A9l%C3%A9vis%C3%A9e,_2019)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Deuxième saison (2021)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Cette saison de six épisodes a été mise en ligne le 5 février 2021
 L'Héritage (La herencia)
 Le Laboratoire (El laboratorio)
 Œil pour œil (Ojo por ojo)
